--- a/results/mp/tinybert/corona/confidence/210/stop-words-topk-masking-0.1/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/210/stop-words-topk-masking-0.1/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="51">
   <si>
     <t>anchor score</t>
   </si>
@@ -49,12 +49,12 @@
     <t>crisis</t>
   </si>
   <si>
+    <t>low</t>
+  </si>
+  <si>
     <t>emergency</t>
   </si>
   <si>
-    <t>low</t>
-  </si>
-  <si>
     <t>panic</t>
   </si>
   <si>
@@ -70,84 +70,84 @@
     <t>negative</t>
   </si>
   <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
     <t>interesting</t>
   </si>
   <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
     <t>great</t>
   </si>
   <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
     <t>thanks</t>
   </si>
   <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>thank</t>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>free</t>
   </si>
   <si>
     <t>positive</t>
   </si>
   <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>safe</t>
+    <t>support</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>good</t>
   </si>
   <si>
     <t>better</t>
   </si>
   <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>support</t>
+    <t>fresh</t>
   </si>
   <si>
     <t>well</t>
   </si>
   <si>
-    <t>fresh</t>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>like</t>
   </si>
   <si>
     <t>relief</t>
   </si>
   <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>like</t>
+    <t>care</t>
   </si>
   <si>
     <t>help</t>
   </si>
   <si>
-    <t>care</t>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>increase</t>
   </si>
   <si>
     <t>protect</t>
   </si>
   <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
     <t>sure</t>
   </si>
   <si>
@@ -161,9 +161,6 @@
   </si>
   <si>
     <t>grocery</t>
-  </si>
-  <si>
-    <t>supermarket</t>
   </si>
   <si>
     <t>19</t>
@@ -527,7 +524,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q36"/>
+  <dimension ref="A1:Q35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -538,7 +535,7 @@
         <v>17</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -596,13 +593,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9705882352941176</v>
+        <v>0.9411764705882353</v>
       </c>
       <c r="C3">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D3">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -614,19 +611,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>18</v>
       </c>
       <c r="K3">
-        <v>0.9696969696969697</v>
+        <v>0.9491525423728814</v>
       </c>
       <c r="L3">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="M3">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -638,7 +635,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -670,13 +667,13 @@
         <v>19</v>
       </c>
       <c r="K4">
-        <v>0.9565217391304348</v>
+        <v>0.9347826086956522</v>
       </c>
       <c r="L4">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M4">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -688,7 +685,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -696,13 +693,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.6986301369863014</v>
+        <v>0.7157534246575342</v>
       </c>
       <c r="C5">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="D5">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -714,19 +711,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>20</v>
       </c>
       <c r="K5">
-        <v>0.9491525423728814</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="L5">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="M5">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -746,13 +743,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.4</v>
+        <v>0.3758389261744967</v>
       </c>
       <c r="C6">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="D6">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -764,19 +761,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>45</v>
+        <v>93</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>21</v>
       </c>
       <c r="K6">
-        <v>0.8839285714285714</v>
+        <v>0.8660714285714286</v>
       </c>
       <c r="L6">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="M6">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -788,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -796,13 +793,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.3758389261744967</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C7">
-        <v>56</v>
+        <v>25</v>
       </c>
       <c r="D7">
-        <v>56</v>
+        <v>25</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -814,19 +811,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>93</v>
+        <v>50</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>22</v>
       </c>
       <c r="K7">
-        <v>0.8414634146341463</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="L7">
-        <v>69</v>
+        <v>30</v>
       </c>
       <c r="M7">
-        <v>69</v>
+        <v>30</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -838,7 +835,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -846,13 +843,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.3313953488372093</v>
+        <v>0.3275193798449613</v>
       </c>
       <c r="C8">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D8">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -864,19 +861,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>23</v>
       </c>
       <c r="K8">
-        <v>0.8333333333333334</v>
+        <v>0.8203125</v>
       </c>
       <c r="L8">
-        <v>30</v>
+        <v>105</v>
       </c>
       <c r="M8">
-        <v>30</v>
+        <v>105</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -888,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>6</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -896,13 +893,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.2962962962962963</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="C9">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D9">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -914,19 +911,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>24</v>
       </c>
       <c r="K9">
-        <v>0.828125</v>
+        <v>0.8170731707317073</v>
       </c>
       <c r="L9">
-        <v>106</v>
+        <v>67</v>
       </c>
       <c r="M9">
-        <v>106</v>
+        <v>67</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -938,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -970,13 +967,13 @@
         <v>25</v>
       </c>
       <c r="K10">
-        <v>0.8275862068965517</v>
+        <v>0.803921568627451</v>
       </c>
       <c r="L10">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="M10">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -996,13 +993,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.1018766756032172</v>
+        <v>0.09919571045576407</v>
       </c>
       <c r="C11">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D11">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1014,19 +1011,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>26</v>
       </c>
       <c r="K11">
-        <v>0.8083333333333333</v>
+        <v>0.8028169014084507</v>
       </c>
       <c r="L11">
-        <v>97</v>
+        <v>114</v>
       </c>
       <c r="M11">
-        <v>97</v>
+        <v>114</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1038,7 +1035,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1046,13 +1043,13 @@
         <v>27</v>
       </c>
       <c r="K12">
-        <v>0.795774647887324</v>
+        <v>0.8</v>
       </c>
       <c r="L12">
-        <v>113</v>
+        <v>96</v>
       </c>
       <c r="M12">
-        <v>113</v>
+        <v>96</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1064,7 +1061,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1072,13 +1069,13 @@
         <v>28</v>
       </c>
       <c r="K13">
-        <v>0.746031746031746</v>
+        <v>0.7931034482758621</v>
       </c>
       <c r="L13">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M13">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1090,7 +1087,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1098,13 +1095,13 @@
         <v>29</v>
       </c>
       <c r="K14">
-        <v>0.7450980392156863</v>
+        <v>0.7452830188679245</v>
       </c>
       <c r="L14">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="M14">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1116,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>13</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1150,13 +1147,13 @@
         <v>31</v>
       </c>
       <c r="K16">
-        <v>0.7375</v>
+        <v>0.71875</v>
       </c>
       <c r="L16">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="M16">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1168,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17" spans="10:17">
@@ -1176,13 +1173,13 @@
         <v>32</v>
       </c>
       <c r="K17">
-        <v>0.7358490566037735</v>
+        <v>0.6984126984126984</v>
       </c>
       <c r="L17">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="M17">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1194,7 +1191,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>28</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="10:17">
@@ -1202,13 +1199,13 @@
         <v>33</v>
       </c>
       <c r="K18">
-        <v>0.6808510638297872</v>
+        <v>0.6458333333333334</v>
       </c>
       <c r="L18">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="M18">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1220,7 +1217,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>30</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="10:17">
@@ -1228,13 +1225,13 @@
         <v>34</v>
       </c>
       <c r="K19">
-        <v>0.625</v>
+        <v>0.6276595744680851</v>
       </c>
       <c r="L19">
-        <v>30</v>
+        <v>59</v>
       </c>
       <c r="M19">
-        <v>30</v>
+        <v>59</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1246,7 +1243,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>18</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="10:17">
@@ -1254,13 +1251,13 @@
         <v>35</v>
       </c>
       <c r="K20">
-        <v>0.62</v>
+        <v>0.6240208877284595</v>
       </c>
       <c r="L20">
-        <v>31</v>
+        <v>239</v>
       </c>
       <c r="M20">
-        <v>31</v>
+        <v>239</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1272,7 +1269,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>19</v>
+        <v>144</v>
       </c>
     </row>
     <row r="21" spans="10:17">
@@ -1280,13 +1277,13 @@
         <v>36</v>
       </c>
       <c r="K21">
-        <v>0.6057441253263708</v>
+        <v>0.5764705882352941</v>
       </c>
       <c r="L21">
-        <v>232</v>
+        <v>196</v>
       </c>
       <c r="M21">
-        <v>232</v>
+        <v>196</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1298,7 +1295,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="22" spans="10:17">
@@ -1306,13 +1303,13 @@
         <v>37</v>
       </c>
       <c r="K22">
-        <v>0.5676470588235294</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="L22">
-        <v>193</v>
+        <v>28</v>
       </c>
       <c r="M22">
-        <v>193</v>
+        <v>28</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1324,7 +1321,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>147</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23" spans="10:17">
@@ -1332,13 +1329,13 @@
         <v>38</v>
       </c>
       <c r="K23">
-        <v>0.5288135593220339</v>
+        <v>0.5280898876404494</v>
       </c>
       <c r="L23">
-        <v>156</v>
+        <v>47</v>
       </c>
       <c r="M23">
-        <v>156</v>
+        <v>47</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1350,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>139</v>
+        <v>42</v>
       </c>
     </row>
     <row r="24" spans="10:17">
@@ -1358,13 +1355,13 @@
         <v>39</v>
       </c>
       <c r="K24">
-        <v>0.5280898876404494</v>
+        <v>0.5254237288135594</v>
       </c>
       <c r="L24">
-        <v>47</v>
+        <v>155</v>
       </c>
       <c r="M24">
-        <v>47</v>
+        <v>155</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1376,7 +1373,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>42</v>
+        <v>140</v>
       </c>
     </row>
     <row r="25" spans="10:17">
@@ -1384,13 +1381,13 @@
         <v>40</v>
       </c>
       <c r="K25">
-        <v>0.4931506849315068</v>
+        <v>0.4923076923076923</v>
       </c>
       <c r="L25">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="M25">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1402,7 +1399,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="26" spans="10:17">
@@ -1410,13 +1407,13 @@
         <v>41</v>
       </c>
       <c r="K26">
-        <v>0.4769874476987448</v>
+        <v>0.4728033472803347</v>
       </c>
       <c r="L26">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="M26">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1428,7 +1425,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="27" spans="10:17">
@@ -1436,13 +1433,13 @@
         <v>42</v>
       </c>
       <c r="K27">
-        <v>0.4487179487179487</v>
+        <v>0.4230769230769231</v>
       </c>
       <c r="L27">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="M27">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1454,7 +1451,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="28" spans="10:17">
@@ -1462,13 +1459,13 @@
         <v>43</v>
       </c>
       <c r="K28">
-        <v>0.4153846153846154</v>
+        <v>0.410958904109589</v>
       </c>
       <c r="L28">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M28">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1480,7 +1477,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="29" spans="10:17">
@@ -1488,13 +1485,13 @@
         <v>44</v>
       </c>
       <c r="K29">
-        <v>0.390625</v>
+        <v>0.40625</v>
       </c>
       <c r="L29">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M29">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1506,7 +1503,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="30" spans="10:17">
@@ -1540,13 +1537,13 @@
         <v>46</v>
       </c>
       <c r="K31">
-        <v>0.09134615384615384</v>
+        <v>0.0889423076923077</v>
       </c>
       <c r="L31">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M31">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1558,7 +1555,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="32" spans="10:17">
@@ -1566,13 +1563,13 @@
         <v>47</v>
       </c>
       <c r="K32">
-        <v>0.05369127516778523</v>
+        <v>0.04921700223713647</v>
       </c>
       <c r="L32">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="M32">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1584,7 +1581,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>846</v>
+        <v>850</v>
       </c>
     </row>
     <row r="33" spans="10:17">
@@ -1592,13 +1589,13 @@
         <v>48</v>
       </c>
       <c r="K33">
-        <v>0.03995560488346282</v>
+        <v>0.04439511653718091</v>
       </c>
       <c r="L33">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="M33">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1610,7 +1607,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>865</v>
+        <v>861</v>
       </c>
     </row>
     <row r="34" spans="10:17">
@@ -1618,25 +1615,25 @@
         <v>49</v>
       </c>
       <c r="K34">
-        <v>0.03117782909930716</v>
+        <v>0.01868285847734703</v>
       </c>
       <c r="L34">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="M34">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="N34">
-        <v>0.96</v>
+        <v>0.95</v>
       </c>
       <c r="O34">
-        <v>0.04000000000000004</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P34" t="b">
         <v>1</v>
       </c>
       <c r="Q34">
-        <v>839</v>
+        <v>2101</v>
       </c>
     </row>
     <row r="35" spans="10:17">
@@ -1644,51 +1641,25 @@
         <v>50</v>
       </c>
       <c r="K35">
-        <v>0.02477793361383824</v>
+        <v>0.009035172636334301</v>
       </c>
       <c r="L35">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="M35">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="N35">
-        <v>0.93</v>
+        <v>0.78</v>
       </c>
       <c r="O35">
-        <v>0.06999999999999995</v>
+        <v>0.22</v>
       </c>
       <c r="P35" t="b">
         <v>1</v>
       </c>
       <c r="Q35">
-        <v>2086</v>
-      </c>
-    </row>
-    <row r="36" spans="10:17">
-      <c r="J36" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="K36">
-        <v>0.01031925185424057</v>
-      </c>
-      <c r="L36">
-        <v>32</v>
-      </c>
-      <c r="M36">
-        <v>38</v>
-      </c>
-      <c r="N36">
-        <v>0.84</v>
-      </c>
-      <c r="O36">
-        <v>0.16</v>
-      </c>
-      <c r="P36" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q36">
-        <v>3069</v>
+        <v>3071</v>
       </c>
     </row>
   </sheetData>

--- a/results/mp/tinybert/corona/confidence/210/stop-words-topk-masking-0.1/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/210/stop-words-topk-masking-0.1/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="56">
   <si>
     <t>anchor score</t>
   </si>
@@ -58,6 +58,9 @@
     <t>panic</t>
   </si>
   <si>
+    <t>risk</t>
+  </si>
+  <si>
     <t>sc</t>
   </si>
   <si>
@@ -70,85 +73,94 @@
     <t>negative</t>
   </si>
   <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
     <t>best</t>
   </si>
   <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
     <t>great</t>
   </si>
   <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
     <t>special</t>
   </si>
   <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>thanks</t>
+    <t>free</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>better</t>
   </si>
   <si>
     <t>safety</t>
   </si>
   <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
     <t>support</t>
   </si>
   <si>
-    <t>heroes</t>
-  </si>
-  <si>
     <t>good</t>
   </si>
   <si>
-    <t>better</t>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>well</t>
   </si>
   <si>
     <t>fresh</t>
   </si>
   <si>
-    <t>well</t>
+    <t>relief</t>
   </si>
   <si>
     <t>hand</t>
   </si>
   <si>
+    <t>care</t>
+  </si>
+  <si>
     <t>like</t>
   </si>
   <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
     <t>help</t>
   </si>
   <si>
+    <t>sure</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
     <t>hope</t>
   </si>
   <si>
-    <t>please</t>
+    <t>protect</t>
   </si>
   <si>
     <t>increase</t>
   </si>
   <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>sure</t>
+    <t>share</t>
   </si>
   <si>
     <t>online</t>
@@ -164,6 +176,9 @@
   </si>
   <si>
     <t>19</t>
+  </si>
+  <si>
+    <t>supermarket</t>
   </si>
   <si>
     <t>co</t>
@@ -524,7 +539,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q35"/>
+  <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -532,10 +547,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -614,16 +629,16 @@
         <v>2</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K3">
-        <v>0.9491525423728814</v>
+        <v>0.9615384615384616</v>
       </c>
       <c r="L3">
-        <v>56</v>
+        <v>25</v>
       </c>
       <c r="M3">
-        <v>56</v>
+        <v>25</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -635,7 +650,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -664,16 +679,16 @@
         <v>8</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K4">
-        <v>0.9347826086956522</v>
+        <v>0.9393939393939394</v>
       </c>
       <c r="L4">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="M4">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -685,7 +700,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -693,13 +708,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.7157534246575342</v>
+        <v>0.702054794520548</v>
       </c>
       <c r="C5">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="D5">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -711,19 +726,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K5">
-        <v>0.9090909090909091</v>
+        <v>0.9347826086956522</v>
       </c>
       <c r="L5">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="M5">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -743,13 +758,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.3758389261744967</v>
+        <v>0.3691275167785235</v>
       </c>
       <c r="C6">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D6">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -761,19 +776,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K6">
-        <v>0.8660714285714286</v>
+        <v>0.9152542372881356</v>
       </c>
       <c r="L6">
-        <v>97</v>
+        <v>54</v>
       </c>
       <c r="M6">
-        <v>97</v>
+        <v>54</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -785,7 +800,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -793,13 +808,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.3333333333333333</v>
+        <v>0.36</v>
       </c>
       <c r="C7">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D7">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -811,19 +826,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K7">
-        <v>0.8333333333333334</v>
+        <v>0.875</v>
       </c>
       <c r="L7">
-        <v>30</v>
+        <v>98</v>
       </c>
       <c r="M7">
-        <v>30</v>
+        <v>98</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -835,7 +850,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -843,13 +858,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.3275193798449613</v>
+        <v>0.3527131782945737</v>
       </c>
       <c r="C8">
-        <v>169</v>
+        <v>182</v>
       </c>
       <c r="D8">
-        <v>169</v>
+        <v>182</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -861,19 +876,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>347</v>
+        <v>334</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K8">
-        <v>0.8203125</v>
+        <v>0.851063829787234</v>
       </c>
       <c r="L8">
-        <v>105</v>
+        <v>40</v>
       </c>
       <c r="M8">
-        <v>105</v>
+        <v>40</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -885,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>23</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -893,13 +908,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.2857142857142857</v>
+        <v>0.3246753246753247</v>
       </c>
       <c r="C9">
-        <v>54</v>
+        <v>25</v>
       </c>
       <c r="D9">
-        <v>54</v>
+        <v>25</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -911,19 +926,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>135</v>
+        <v>52</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K9">
-        <v>0.8170731707317073</v>
+        <v>0.84375</v>
       </c>
       <c r="L9">
-        <v>67</v>
+        <v>108</v>
       </c>
       <c r="M9">
-        <v>67</v>
+        <v>108</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -935,7 +950,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -943,13 +958,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.1825396825396825</v>
+        <v>0.2751322751322751</v>
       </c>
       <c r="C10">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="D10">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -961,19 +976,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>206</v>
+        <v>137</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K10">
-        <v>0.803921568627451</v>
+        <v>0.8170731707317073</v>
       </c>
       <c r="L10">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="M10">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -985,7 +1000,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -993,13 +1008,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.09919571045576407</v>
+        <v>0.1547619047619048</v>
       </c>
       <c r="C11">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D11">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1011,19 +1026,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>336</v>
+        <v>213</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K11">
-        <v>0.8028169014084507</v>
+        <v>0.8098591549295775</v>
       </c>
       <c r="L11">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="M11">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1035,21 +1050,45 @@
         <v>0</v>
       </c>
       <c r="Q11">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="A12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12">
+        <v>0.1072386058981233</v>
+      </c>
+      <c r="C12">
+        <v>40</v>
+      </c>
+      <c r="D12">
+        <v>40</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12" t="b">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>333</v>
+      </c>
+      <c r="J12" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="12" spans="1:17">
-      <c r="J12" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="K12">
-        <v>0.8</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="L12">
-        <v>96</v>
+        <v>29</v>
       </c>
       <c r="M12">
-        <v>96</v>
+        <v>29</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1061,21 +1100,21 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>24</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="J13" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K13">
-        <v>0.7931034482758621</v>
+        <v>0.8</v>
       </c>
       <c r="L13">
-        <v>46</v>
+        <v>96</v>
       </c>
       <c r="M13">
-        <v>46</v>
+        <v>96</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1087,21 +1126,21 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K14">
-        <v>0.7452830188679245</v>
+        <v>0.7931034482758621</v>
       </c>
       <c r="L14">
-        <v>79</v>
+        <v>46</v>
       </c>
       <c r="M14">
-        <v>79</v>
+        <v>46</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1113,21 +1152,21 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K15">
-        <v>0.7446808510638298</v>
+        <v>0.7619047619047619</v>
       </c>
       <c r="L15">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="M15">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1139,21 +1178,21 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K16">
-        <v>0.71875</v>
+        <v>0.7450980392156863</v>
       </c>
       <c r="L16">
-        <v>115</v>
+        <v>38</v>
       </c>
       <c r="M16">
-        <v>115</v>
+        <v>38</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1165,21 +1204,21 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>45</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K17">
-        <v>0.6984126984126984</v>
+        <v>0.7358490566037735</v>
       </c>
       <c r="L17">
-        <v>44</v>
+        <v>78</v>
       </c>
       <c r="M17">
-        <v>44</v>
+        <v>78</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1191,21 +1230,21 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>19</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K18">
-        <v>0.6458333333333334</v>
+        <v>0.7125</v>
       </c>
       <c r="L18">
-        <v>31</v>
+        <v>114</v>
       </c>
       <c r="M18">
-        <v>31</v>
+        <v>114</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1217,21 +1256,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>17</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K19">
-        <v>0.6276595744680851</v>
+        <v>0.6944444444444444</v>
       </c>
       <c r="L19">
-        <v>59</v>
+        <v>25</v>
       </c>
       <c r="M19">
-        <v>59</v>
+        <v>25</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1243,21 +1282,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>35</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K20">
-        <v>0.6240208877284595</v>
+        <v>0.6808510638297872</v>
       </c>
       <c r="L20">
-        <v>239</v>
+        <v>64</v>
       </c>
       <c r="M20">
-        <v>239</v>
+        <v>64</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1269,21 +1308,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>144</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K21">
-        <v>0.5764705882352941</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L21">
-        <v>196</v>
+        <v>32</v>
       </c>
       <c r="M21">
-        <v>196</v>
+        <v>32</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1295,21 +1334,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>144</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K22">
-        <v>0.5600000000000001</v>
+        <v>0.66</v>
       </c>
       <c r="L22">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="M22">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1321,21 +1360,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K23">
-        <v>0.5280898876404494</v>
+        <v>0.6057441253263708</v>
       </c>
       <c r="L23">
-        <v>47</v>
+        <v>232</v>
       </c>
       <c r="M23">
-        <v>47</v>
+        <v>232</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1347,21 +1386,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>42</v>
+        <v>151</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K24">
-        <v>0.5254237288135594</v>
+        <v>0.5842696629213483</v>
       </c>
       <c r="L24">
-        <v>155</v>
+        <v>52</v>
       </c>
       <c r="M24">
-        <v>155</v>
+        <v>52</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1373,21 +1412,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>140</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K25">
-        <v>0.4923076923076923</v>
+        <v>0.5676470588235294</v>
       </c>
       <c r="L25">
-        <v>32</v>
+        <v>193</v>
       </c>
       <c r="M25">
-        <v>32</v>
+        <v>193</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1399,21 +1438,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>33</v>
+        <v>147</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K26">
-        <v>0.4728033472803347</v>
+        <v>0.4847457627118644</v>
       </c>
       <c r="L26">
-        <v>113</v>
+        <v>143</v>
       </c>
       <c r="M26">
-        <v>113</v>
+        <v>143</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1425,47 +1464,47 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>126</v>
+        <v>152</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K27">
-        <v>0.4230769230769231</v>
+        <v>0.484375</v>
       </c>
       <c r="L27">
+        <v>31</v>
+      </c>
+      <c r="M27">
+        <v>31</v>
+      </c>
+      <c r="N27">
+        <v>1</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q27">
         <v>33</v>
-      </c>
-      <c r="M27">
-        <v>33</v>
-      </c>
-      <c r="N27">
-        <v>1</v>
-      </c>
-      <c r="O27">
-        <v>0</v>
-      </c>
-      <c r="P27" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q27">
-        <v>45</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K28">
-        <v>0.410958904109589</v>
+        <v>0.4728033472803347</v>
       </c>
       <c r="L28">
-        <v>30</v>
+        <v>113</v>
       </c>
       <c r="M28">
-        <v>30</v>
+        <v>113</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1477,21 +1516,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>43</v>
+        <v>126</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K29">
-        <v>0.40625</v>
+        <v>0.4461538461538462</v>
       </c>
       <c r="L29">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="M29">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1503,21 +1542,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K30">
-        <v>0.09569377990430622</v>
+        <v>0.4383561643835616</v>
       </c>
       <c r="L30">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="M30">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1529,47 +1568,47 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>378</v>
+        <v>41</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K31">
+        <v>0.4102564102564102</v>
+      </c>
+      <c r="L31">
+        <v>32</v>
+      </c>
+      <c r="M31">
+        <v>32</v>
+      </c>
+      <c r="N31">
+        <v>1</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q31">
         <v>46</v>
-      </c>
-      <c r="K31">
-        <v>0.0889423076923077</v>
-      </c>
-      <c r="L31">
-        <v>37</v>
-      </c>
-      <c r="M31">
-        <v>37</v>
-      </c>
-      <c r="N31">
-        <v>1</v>
-      </c>
-      <c r="O31">
-        <v>0</v>
-      </c>
-      <c r="P31" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q31">
-        <v>379</v>
       </c>
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K32">
-        <v>0.04921700223713647</v>
+        <v>0.3857142857142857</v>
       </c>
       <c r="L32">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="M32">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1581,21 +1620,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>850</v>
+        <v>43</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K33">
-        <v>0.04439511653718091</v>
+        <v>0.1172248803827751</v>
       </c>
       <c r="L33">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="M33">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1607,59 +1646,163 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>861</v>
+        <v>369</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K34">
-        <v>0.01868285847734703</v>
+        <v>0.09615384615384616</v>
       </c>
       <c r="L34">
         <v>40</v>
       </c>
       <c r="M34">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="N34">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O34">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q34">
-        <v>2101</v>
+        <v>376</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K35">
-        <v>0.009035172636334301</v>
+        <v>0.05033557046979865</v>
       </c>
       <c r="L35">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="M35">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="N35">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="O35">
-        <v>0.22</v>
+        <v>0</v>
       </c>
       <c r="P35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q35">
-        <v>3071</v>
+        <v>849</v>
+      </c>
+    </row>
+    <row r="36" spans="10:17">
+      <c r="J36" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K36">
+        <v>0.03773584905660377</v>
+      </c>
+      <c r="L36">
+        <v>34</v>
+      </c>
+      <c r="M36">
+        <v>34</v>
+      </c>
+      <c r="N36">
+        <v>1</v>
+      </c>
+      <c r="O36">
+        <v>0</v>
+      </c>
+      <c r="P36" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q36">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="37" spans="10:17">
+      <c r="J37" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="K37">
+        <v>0.03271028037383177</v>
+      </c>
+      <c r="L37">
+        <v>70</v>
+      </c>
+      <c r="M37">
+        <v>73</v>
+      </c>
+      <c r="N37">
+        <v>0.96</v>
+      </c>
+      <c r="O37">
+        <v>0.04000000000000004</v>
+      </c>
+      <c r="P37" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q37">
+        <v>2070</v>
+      </c>
+    </row>
+    <row r="38" spans="10:17">
+      <c r="J38" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="K38">
+        <v>0.02998846597462514</v>
+      </c>
+      <c r="L38">
+        <v>26</v>
+      </c>
+      <c r="M38">
+        <v>26</v>
+      </c>
+      <c r="N38">
+        <v>1</v>
+      </c>
+      <c r="O38">
+        <v>0</v>
+      </c>
+      <c r="P38" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q38">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="39" spans="10:17">
+      <c r="J39" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="K39">
+        <v>0.01642512077294686</v>
+      </c>
+      <c r="L39">
+        <v>51</v>
+      </c>
+      <c r="M39">
+        <v>53</v>
+      </c>
+      <c r="N39">
+        <v>0.96</v>
+      </c>
+      <c r="O39">
+        <v>0.04000000000000004</v>
+      </c>
+      <c r="P39" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q39">
+        <v>3054</v>
       </c>
     </row>
   </sheetData>
